--- a/Flask_project_guide.xlsx
+++ b/Flask_project_guide.xlsx
@@ -5,29 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project_venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455AE0A6-57BD-4039-A72E-B675208314B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44683F4A-2F4E-43A9-8EEE-8E8DE581842C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="6" r:id="rId1"/>
-    <sheet name="Запуск" sheetId="2" r:id="rId2"/>
-    <sheet name="Структура приложения" sheetId="1" r:id="rId3"/>
-    <sheet name="flask_variables" sheetId="10" r:id="rId4"/>
-    <sheet name="flask app" sheetId="9" r:id="rId5"/>
-    <sheet name="jinja2" sheetId="3" r:id="rId6"/>
-    <sheet name="View" sheetId="4" r:id="rId7"/>
-    <sheet name="модули" sheetId="8" r:id="rId8"/>
-    <sheet name="Forms" sheetId="5" r:id="rId9"/>
-    <sheet name="bootstap" sheetId="11" r:id="rId10"/>
-    <sheet name="request" sheetId="7" r:id="rId11"/>
-    <sheet name="SQLAlchemy" sheetId="12" r:id="rId12"/>
+    <sheet name="Расширения" sheetId="17" r:id="rId2"/>
+    <sheet name="Лист6" sheetId="18" r:id="rId3"/>
+    <sheet name="Общие принципы" sheetId="16" r:id="rId4"/>
+    <sheet name="Responses" sheetId="15" r:id="rId5"/>
+    <sheet name="Коды результата запроса" sheetId="14" r:id="rId6"/>
+    <sheet name="Hooks" sheetId="13" r:id="rId7"/>
+    <sheet name="Запуск" sheetId="2" r:id="rId8"/>
+    <sheet name="Структура приложения" sheetId="1" r:id="rId9"/>
+    <sheet name="flask_variables" sheetId="10" r:id="rId10"/>
+    <sheet name="flask app" sheetId="9" r:id="rId11"/>
+    <sheet name="jinja2" sheetId="3" r:id="rId12"/>
+    <sheet name="View" sheetId="4" r:id="rId13"/>
+    <sheet name="модули" sheetId="8" r:id="rId14"/>
+    <sheet name="Forms" sheetId="5" r:id="rId15"/>
+    <sheet name="bootstap" sheetId="11" r:id="rId16"/>
+    <sheet name="request" sheetId="7" r:id="rId17"/>
+    <sheet name="SQLAlchemy" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">модули!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">модули!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="282">
   <si>
     <t>app</t>
   </si>
@@ -488,9 +494,6 @@
     <t>app.config["KEY"] = "value</t>
   </si>
   <si>
-    <t>FLASK_ENV</t>
-  </si>
-  <si>
     <t>Переменная</t>
   </si>
   <si>
@@ -500,16 +503,7 @@
     <t>production</t>
   </si>
   <si>
-    <t>if app.config["ENV"] == "production":
-    app.config.from_object("config.ProductionConfig")
-else:
-    app.config.from_object("config.DevelopmentConfig")</t>
-  </si>
-  <si>
     <t>Название перемнной через терминал</t>
-  </si>
-  <si>
-    <t>set FLASK_ENV = development</t>
   </si>
   <si>
     <t>Устанавливает вариант запуска (разработка, тест, продуктив)</t>
@@ -814,6 +808,311 @@
   </si>
   <si>
     <t>Методы и атрибуты объекта request</t>
+  </si>
+  <si>
+    <t>FLASK_APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устанавливает python приложение для запуска </t>
+  </si>
+  <si>
+    <t>FLASK_CONFIG</t>
+  </si>
+  <si>
+    <t>app = create_app(os.getenv('FLASK_CONFIG') or 'default')</t>
+  </si>
+  <si>
+    <t>set FLASK_CONFIG = development</t>
+  </si>
+  <si>
+    <t>FLASK_DEBUG</t>
+  </si>
+  <si>
+    <t>Включает режим отладки</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>before_request</t>
+  </si>
+  <si>
+    <t>Registers a function to run before each request</t>
+  </si>
+  <si>
+    <t>before_first_request</t>
+  </si>
+  <si>
+    <t>Registers a function to run only before the first request is handled. This can be a
+convenient way to add server initialization tasks</t>
+  </si>
+  <si>
+    <t>after_request</t>
+  </si>
+  <si>
+    <t>Registers a function to run after each request, but only if no unhandled exceptions
+occurred</t>
+  </si>
+  <si>
+    <t>teardown_request</t>
+  </si>
+  <si>
+    <t>Registers a function to run after each request, even if unhandled exceptions
+occurred.</t>
+  </si>
+  <si>
+    <t>Например используется для проверки полномочий</t>
+  </si>
+  <si>
+    <t>Например используется для логирования длительных запросов</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> @app.route('/')
+def index():
+return '&lt;h1&gt;Bad Request&lt;/h1&gt;', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Передача </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> результата выполнения запроса</t>
+    </r>
+  </si>
+  <si>
+    <t>Responses</t>
+  </si>
+  <si>
+    <t>Типы ответов, возвращаемых View функциями</t>
+  </si>
+  <si>
+    <t>Ссылка на страницу</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> render_template('moderate.html', comments=comments, pagination=pagination, page=page)</t>
+    </r>
+  </si>
+  <si>
+    <t>response object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @app.route('/')
+def index():
+response = make_response('&lt;h1&gt;This document carries a cookie!&lt;/h1&gt;')
+response.set_cookie('answer', '42')
+return response</t>
+  </si>
+  <si>
+    <t>return redirect(url_for('history.ambulance_edit', h=h, h_e=ambulance_event.id, e_type=e_type, pill=pill))</t>
+  </si>
+  <si>
+    <t>abort(404)</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>2XX</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>3XX</t>
+  </si>
+  <si>
+    <t>Redirect</t>
+  </si>
+  <si>
+    <t>4XX</t>
+  </si>
+  <si>
+    <t>Client Error</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>5XX</t>
+  </si>
+  <si>
+    <t>Server Error</t>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>1. Нужно разделять Business logic и Presentation logic</t>
+  </si>
+  <si>
+    <t>render_teplate() - интегрирует Jinja2 в рендеринг</t>
+  </si>
+  <si>
+    <t>Расширения</t>
+  </si>
+  <si>
+    <t>Методы инициализации расширения</t>
+  </si>
+  <si>
+    <t>1. Для приложения без blueprints</t>
+  </si>
+  <si>
+    <t>bootstrap = Bootstrap(app)</t>
+  </si>
+  <si>
+    <t>2. Для приложений с blueprints</t>
+  </si>
+  <si>
+    <t>bootstrap = Bootstrap()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app = Flask(__name__)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.config.from_object(config[config_name])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config[config_name].init_app(app)
+</t>
+  </si>
+  <si>
+    <t>bootstrap.init_app(app)</t>
+  </si>
+  <si>
+    <t>Расширение</t>
+  </si>
+  <si>
+    <t>flask-bootstrap</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>flask-moment</t>
+  </si>
+  <si>
+    <t>flask-wtf</t>
+  </si>
+  <si>
+    <t>Преобразование даты и времени из UTC</t>
+  </si>
+  <si>
+    <t>flask-sqlalchemy</t>
+  </si>
+  <si>
+    <t>ORM для баз данных</t>
+  </si>
+  <si>
+    <t>import os
+basedir = os.path.abspath(os.path.dirname(__file__))</t>
+  </si>
+  <si>
+    <t>flask-mail</t>
+  </si>
+  <si>
+    <t>Управление почтой</t>
+  </si>
+  <si>
+    <t>MAIL_PASSWORD = os.environ.get('MAIL_PASSWORD')</t>
+  </si>
+  <si>
+    <t>app = current_app._get_current_object()</t>
+  </si>
+  <si>
+    <t>current_app._get_current_object()</t>
+  </si>
+  <si>
+    <t>Получение экземпляра приложения</t>
+  </si>
+  <si>
+    <t>flask-login</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Method not Allowed</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>No content</t>
+  </si>
+  <si>
+    <t>Bad request</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>flask-httpauth</t>
+  </si>
+  <si>
+    <t>Включение учетных данных в тело HTTP запроса</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B20CB91-F000-42D3-8D66-CD86E9F49AE0}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,27 +1548,42 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1284,12 +1598,700 @@
     <hyperlink ref="A8" location="View!A1" display="Views" xr:uid="{33748B36-84B6-47EA-A6D8-D1A5D8616007}"/>
     <hyperlink ref="A9" location="модули!A1" display="Модули" xr:uid="{D41038B2-1CD4-4B5B-8968-EB182300C973}"/>
     <hyperlink ref="A10" location="request!A1" display="Методы и атрибуты объекта request" xr:uid="{53F147C7-53FA-48D8-BAAF-EC80A6D38341}"/>
+    <hyperlink ref="A11" location="Hooks!A1" display="Hooks" xr:uid="{4855DBCC-4CDE-4926-A3C9-D5FC3EA1C24B}"/>
+    <hyperlink ref="A12" location="Responses!A1" display="Responses" xr:uid="{EC49A8D5-FD9D-403E-B935-AB3BA0E9A03C}"/>
+    <hyperlink ref="A13" location="Расширения!A1" display="Расширения" xr:uid="{8DF78DA9-80B0-441C-9DBD-690F74F47A6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753FE662-3ED2-493D-A90D-C3E0D3F67700}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{2C2D0BB9-AF6F-48F3-8964-CBF315B83F45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D33026-74C1-43A6-95D1-C14C89877702}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{95534E5B-9740-4E11-8CD8-56497EAE0D54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89610FD5-1DC2-4657-90A8-BCDF16E03C84}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A1E301-4ED7-4981-9782-6DDA3600F11C}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{EA078255-3C0B-425E-A1F9-A048C41D339F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA21F88-B330-4FE8-AD23-AE7BA2FB4A36}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{B3BBBF8C-55C9-4706-9F73-E1E2327D2CF5}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{E25D6385-D644-49B0-8D68-44FD85820386}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B5B74-F809-4602-B1DA-0D27AB78BE96}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{7D4A6D23-245B-4E9C-B648-75E4B10D4550}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA9B706-1DAF-495D-92C2-F1609010572A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1301,12 +2303,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD3C77-6D7C-440E-9DC2-BD85BEF56C09}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,7 +2320,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1331,13 +2333,13 @@
     </row>
     <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,7 +2355,7 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>123</v>
@@ -1378,7 +2380,7 @@
         <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>125</v>
@@ -1386,77 +2388,77 @@
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1470,11 +2472,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3B3F6F-9EDD-4541-B74B-1B0786651B14}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1485,6 +2487,414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC164127-0CD5-4207-8CB0-0630D3638A14}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A3FD3-38EE-4610-B54C-AAD77A9B95DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798D6FF-64FC-4AE1-9CB0-FE526054FDEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA3A64-8079-4B5C-88EE-8B205F5BEF13}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EB3148-43DC-4AFE-8F80-B0B9096157EA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>401</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>403</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>404</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D303D08-8E51-4916-9ED9-E2FFF04F4760}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DA16A-2D42-4695-9163-E67ABB14CDF5}">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -1611,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C0A88A-B4C4-4276-8139-E8C4DB7B223A}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1835,637 +3245,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753FE662-3ED2-493D-A90D-C3E0D3F67700}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{2C2D0BB9-AF6F-48F3-8964-CBF315B83F45}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D33026-74C1-43A6-95D1-C14C89877702}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{95534E5B-9740-4E11-8CD8-56497EAE0D54}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89610FD5-1DC2-4657-90A8-BCDF16E03C84}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A1E301-4ED7-4981-9782-6DDA3600F11C}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{EA078255-3C0B-425E-A1F9-A048C41D339F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA21F88-B330-4FE8-AD23-AE7BA2FB4A36}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{B3BBBF8C-55C9-4706-9F73-E1E2327D2CF5}"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{E25D6385-D644-49B0-8D68-44FD85820386}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B5B74-F809-4602-B1DA-0D27AB78BE96}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{7D4A6D23-245B-4E9C-B648-75E4B10D4550}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>